--- a/Anemone List.xlsx
+++ b/Anemone List.xlsx
@@ -85,7 +85,7 @@
     <t>Beaded Sea Anemone</t>
   </si>
   <si>
-    <t>Radianthus aurora</t>
+    <t>Heteractis aurora</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
     <col min="3" max="3" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
